--- a/10월 공부계획.xlsx
+++ b/10월 공부계획.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shfkd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\박준호\fire1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B4CFB6-11E9-4A24-A6D4-96C9A0C2C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19336C92-841D-4724-8855-AC4ECA8891EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F7338BB-E777-402E-A7B2-0559C53A591A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F7338BB-E777-402E-A7B2-0559C53A591A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$21:$H$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -794,10 +797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8252E249-61D9-4B36-9E8B-9C28DE61D433}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B7:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1310,6 +1316,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" fitToWidth="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>